--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="23420" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -79,9 +79,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,8 +94,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,14 +149,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,23 +172,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,50 +188,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -208,9 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,91 +225,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,25 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,61 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +437,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +472,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,185 +516,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
@@ -1058,6 +1058,32 @@
         <v>65</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B3" s="1">
+        <v>163.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>102</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18040" windowHeight="10620"/>
+    <workbookView windowWidth="17140" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5882352941176" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
@@ -1111,6 +1111,32 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B5" s="1">
+        <v>155.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17140" windowHeight="9000"/>
+    <workbookView windowWidth="28000" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5882352941176" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
@@ -1137,6 +1137,32 @@
         <v>59</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B6" s="1">
+        <v>153.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11620"/>
+    <workbookView windowWidth="20540" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5882352941176" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
@@ -1163,6 +1163,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B7" s="1">
+        <v>153.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1">
+        <v>104</v>
+      </c>
+      <c r="E7" s="1">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20540" windowHeight="11620"/>
+    <workbookView windowWidth="24740" windowHeight="11440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5882352941176" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
@@ -1189,6 +1189,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B8" s="1">
+        <v>151.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24740" windowHeight="11440"/>
+    <workbookView windowWidth="15840" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5882352941176" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
@@ -1215,6 +1215,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B9" s="1">
+        <v>154.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="10840"/>
+    <workbookView windowWidth="17220" windowHeight="7220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,10 +995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1241,6 +1241,32 @@
         <v>57</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B10" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -995,15 +995,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.5882352941176" style="1"/>
+    <col min="1" max="1" width="11.7058823529412" style="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -1267,6 +1267,32 @@
         <v>59</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B11" s="1">
+        <v>156.4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1">
+        <v>105</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="7220"/>
+    <workbookView windowWidth="19360" windowHeight="11680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -1293,6 +1293,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>45494</v>
+      </c>
+      <c r="B12" s="1">
+        <v>157.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>105</v>
+      </c>
+      <c r="E12" s="1">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19360" windowHeight="11680"/>
+    <workbookView windowWidth="28800" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,10 +995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1319,6 +1319,32 @@
         <v>57</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>45542</v>
+      </c>
+      <c r="B13" s="1">
+        <v>155.6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
